--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tnfrsf8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1296863333333333</v>
+        <v>0.07511900000000001</v>
       </c>
       <c r="H2">
-        <v>0.389059</v>
+        <v>0.225357</v>
       </c>
       <c r="I2">
-        <v>0.1277362269354521</v>
+        <v>0.1238117789774295</v>
       </c>
       <c r="J2">
-        <v>0.1277362269354521</v>
+        <v>0.1238117789774295</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.017533</v>
+        <v>0.288105</v>
       </c>
       <c r="N2">
-        <v>3.052599</v>
+        <v>0.8643149999999999</v>
       </c>
       <c r="O2">
-        <v>0.7894159881745312</v>
+        <v>0.7917647996438357</v>
       </c>
       <c r="P2">
-        <v>0.7894159881745312</v>
+        <v>0.7917647996438356</v>
       </c>
       <c r="Q2">
-        <v>0.1319601238156667</v>
+        <v>0.021642159495</v>
       </c>
       <c r="R2">
-        <v>1.187641114341</v>
+        <v>0.194779435455</v>
       </c>
       <c r="S2">
-        <v>0.1008370198119361</v>
+        <v>0.0980298083756113</v>
       </c>
       <c r="T2">
-        <v>0.1008370198119361</v>
+        <v>0.09802980837561129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,46 +599,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1296863333333333</v>
+        <v>0.07511900000000001</v>
       </c>
       <c r="H3">
-        <v>0.389059</v>
+        <v>0.225357</v>
       </c>
       <c r="I3">
-        <v>0.1277362269354521</v>
+        <v>0.1238117789774295</v>
       </c>
       <c r="J3">
-        <v>0.1277362269354521</v>
+        <v>0.1238117789774295</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2714363333333333</v>
+        <v>0.07577199999999999</v>
       </c>
       <c r="N3">
-        <v>0.8143090000000001</v>
+        <v>0.227316</v>
       </c>
       <c r="O3">
-        <v>0.2105840118254688</v>
+        <v>0.2082352003561643</v>
       </c>
       <c r="P3">
-        <v>0.2105840118254688</v>
+        <v>0.2082352003561643</v>
       </c>
       <c r="Q3">
-        <v>0.03520158280344444</v>
+        <v>0.005691916868</v>
       </c>
       <c r="R3">
-        <v>0.316814245231</v>
+        <v>0.051227251812</v>
       </c>
       <c r="S3">
-        <v>0.02689920712351601</v>
+        <v>0.02578197060181815</v>
       </c>
       <c r="T3">
-        <v>0.02689920712351601</v>
+        <v>0.02578197060181815</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02808733333333334</v>
+        <v>0.1296863333333333</v>
       </c>
       <c r="H4">
-        <v>0.084262</v>
+        <v>0.389059</v>
       </c>
       <c r="I4">
-        <v>0.02766498128570491</v>
+        <v>0.2137501249891493</v>
       </c>
       <c r="J4">
-        <v>0.0276649812857049</v>
+        <v>0.2137501249891493</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.017533</v>
+        <v>0.288105</v>
       </c>
       <c r="N4">
-        <v>3.052599</v>
+        <v>0.8643149999999999</v>
       </c>
       <c r="O4">
-        <v>0.7894159881745312</v>
+        <v>0.7917647996438357</v>
       </c>
       <c r="P4">
-        <v>0.7894159881745312</v>
+        <v>0.7917647996438356</v>
       </c>
       <c r="Q4">
-        <v>0.02857978854866667</v>
+        <v>0.037363281065</v>
       </c>
       <c r="R4">
-        <v>0.257218096938</v>
+        <v>0.3362695295849999</v>
       </c>
       <c r="S4">
-        <v>0.02183917853948465</v>
+        <v>0.1692398248858786</v>
       </c>
       <c r="T4">
-        <v>0.02183917853948465</v>
+        <v>0.1692398248858786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02808733333333334</v>
+        <v>0.1296863333333333</v>
       </c>
       <c r="H5">
-        <v>0.084262</v>
+        <v>0.389059</v>
       </c>
       <c r="I5">
-        <v>0.02766498128570491</v>
+        <v>0.2137501249891493</v>
       </c>
       <c r="J5">
-        <v>0.0276649812857049</v>
+        <v>0.2137501249891493</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2714363333333333</v>
+        <v>0.07577199999999999</v>
       </c>
       <c r="N5">
-        <v>0.8143090000000001</v>
+        <v>0.227316</v>
       </c>
       <c r="O5">
-        <v>0.2105840118254688</v>
+        <v>0.2082352003561643</v>
       </c>
       <c r="P5">
-        <v>0.2105840118254688</v>
+        <v>0.2082352003561643</v>
       </c>
       <c r="Q5">
-        <v>0.007623922773111112</v>
+        <v>0.009826592849333331</v>
       </c>
       <c r="R5">
-        <v>0.06861530495800001</v>
+        <v>0.088439335644</v>
       </c>
       <c r="S5">
-        <v>0.005825802746220255</v>
+        <v>0.04451030010327066</v>
       </c>
       <c r="T5">
-        <v>0.005825802746220255</v>
+        <v>0.04451030010327067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.8574930000000002</v>
+        <v>0.017113</v>
       </c>
       <c r="H6">
-        <v>2.572479</v>
+        <v>0.051339</v>
       </c>
       <c r="I6">
-        <v>0.8445987917788431</v>
+        <v>0.02820579312345412</v>
       </c>
       <c r="J6">
-        <v>0.844598791778843</v>
+        <v>0.02820579312345413</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.017533</v>
+        <v>0.288105</v>
       </c>
       <c r="N6">
-        <v>3.052599</v>
+        <v>0.8643149999999999</v>
       </c>
       <c r="O6">
-        <v>0.7894159881745312</v>
+        <v>0.7917647996438357</v>
       </c>
       <c r="P6">
-        <v>0.7894159881745312</v>
+        <v>0.7917647996438356</v>
       </c>
       <c r="Q6">
-        <v>0.8725274247690001</v>
+        <v>0.004930340865</v>
       </c>
       <c r="R6">
-        <v>7.852746822921002</v>
+        <v>0.044373067785</v>
       </c>
       <c r="S6">
-        <v>0.6667397898231106</v>
+        <v>0.02233235414118713</v>
       </c>
       <c r="T6">
-        <v>0.6667397898231104</v>
+        <v>0.02233235414118713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,185 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.017113</v>
+      </c>
+      <c r="H7">
+        <v>0.051339</v>
+      </c>
+      <c r="I7">
+        <v>0.02820579312345412</v>
+      </c>
+      <c r="J7">
+        <v>0.02820579312345413</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.07577199999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.227316</v>
+      </c>
+      <c r="O7">
+        <v>0.2082352003561643</v>
+      </c>
+      <c r="P7">
+        <v>0.2082352003561643</v>
+      </c>
+      <c r="Q7">
+        <v>0.001296686236</v>
+      </c>
+      <c r="R7">
+        <v>0.011670176124</v>
+      </c>
+      <c r="S7">
+        <v>0.005873438982266989</v>
+      </c>
+      <c r="T7">
+        <v>0.005873438982266991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.8574930000000002</v>
-      </c>
-      <c r="H7">
-        <v>2.572479</v>
-      </c>
-      <c r="I7">
-        <v>0.8445987917788431</v>
-      </c>
-      <c r="J7">
-        <v>0.844598791778843</v>
-      </c>
-      <c r="K7">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3848009999999999</v>
+      </c>
+      <c r="H8">
+        <v>1.154403</v>
+      </c>
+      <c r="I8">
+        <v>0.6342323029099671</v>
+      </c>
+      <c r="J8">
+        <v>0.6342323029099671</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M7">
-        <v>0.2714363333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.8143090000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.2105840118254688</v>
-      </c>
-      <c r="P7">
-        <v>0.2105840118254688</v>
-      </c>
-      <c r="Q7">
-        <v>0.232754755779</v>
-      </c>
-      <c r="R7">
-        <v>2.094792802011</v>
-      </c>
-      <c r="S7">
-        <v>0.1778590019557326</v>
-      </c>
-      <c r="T7">
-        <v>0.1778590019557326</v>
+      <c r="M8">
+        <v>0.288105</v>
+      </c>
+      <c r="N8">
+        <v>0.8643149999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.7917647996438357</v>
+      </c>
+      <c r="P8">
+        <v>0.7917647996438356</v>
+      </c>
+      <c r="Q8">
+        <v>0.110863092105</v>
+      </c>
+      <c r="R8">
+        <v>0.9977678289449998</v>
+      </c>
+      <c r="S8">
+        <v>0.5021628122411587</v>
+      </c>
+      <c r="T8">
+        <v>0.5021628122411586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3848009999999999</v>
+      </c>
+      <c r="H9">
+        <v>1.154403</v>
+      </c>
+      <c r="I9">
+        <v>0.6342323029099671</v>
+      </c>
+      <c r="J9">
+        <v>0.6342323029099671</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.07577199999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.227316</v>
+      </c>
+      <c r="O9">
+        <v>0.2082352003561643</v>
+      </c>
+      <c r="P9">
+        <v>0.2082352003561643</v>
+      </c>
+      <c r="Q9">
+        <v>0.02915714137199999</v>
+      </c>
+      <c r="R9">
+        <v>0.262414272348</v>
+      </c>
+      <c r="S9">
+        <v>0.1320694906688085</v>
+      </c>
+      <c r="T9">
+        <v>0.1320694906688085</v>
       </c>
     </row>
   </sheetData>
